--- a/conditions/4_35_mod_thermocouple_delay/稼働工程表.xlsx
+++ b/conditions/4_35_mod_thermocouple_delay/稼働工程表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="32">
   <si>
     <t>#</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>温度上昇_塔3_53/時間経過_3_min</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -217,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -254,6 +257,9 @@
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -571,7 +577,7 @@
     <col min="3" max="3" style="6" width="18.14785714285714" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="6" width="17.719285714285714" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="6" width="32.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="10.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="14" width="10.43357142857143" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -1013,256 +1019,184 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="10">
-        <v>19</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>3</v>
+      <c r="A20" s="10"/>
+      <c r="B20" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="E20" s="11"/>
-      <c r="F20" s="12">
-        <v>35.87</v>
-      </c>
-      <c r="G20" s="10">
-        <v>2</v>
-      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="10">
-        <v>20</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>6</v>
+      <c r="A21" s="10"/>
+      <c r="B21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="E21" s="11"/>
-      <c r="F21" s="12">
-        <v>36.4</v>
-      </c>
-      <c r="G21" s="10">
-        <v>2</v>
-      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="10">
-        <v>21</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>7</v>
+      <c r="A22" s="10"/>
+      <c r="B22" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="E22" s="11"/>
-      <c r="F22" s="12">
-        <v>37.57</v>
-      </c>
-      <c r="G22" s="10">
-        <v>2</v>
-      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="10">
-        <v>22</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>7</v>
+      <c r="A23" s="10"/>
+      <c r="B23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="E23" s="11"/>
-      <c r="F23" s="12">
-        <v>46.27</v>
-      </c>
-      <c r="G23" s="10">
-        <v>2</v>
-      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="10">
-        <v>23</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>3</v>
+      <c r="A24" s="10"/>
+      <c r="B24" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="E24" s="11"/>
-      <c r="F24" s="12">
-        <v>46.53</v>
-      </c>
-      <c r="G24" s="10">
-        <v>2</v>
-      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="10">
-        <v>24</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>8</v>
+      <c r="A25" s="10"/>
+      <c r="B25" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="E25" s="11"/>
-      <c r="F25" s="12">
-        <v>47.03</v>
-      </c>
-      <c r="G25" s="10">
-        <v>2</v>
-      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="10">
-        <v>25</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>9</v>
+      <c r="A26" s="10"/>
+      <c r="B26" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="E26" s="11"/>
-      <c r="F26" s="12">
-        <v>48.13</v>
-      </c>
-      <c r="G26" s="10">
-        <v>2</v>
-      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="10">
-        <v>26</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>10</v>
+      <c r="A27" s="10"/>
+      <c r="B27" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="E27" s="11"/>
-      <c r="F27" s="12">
-        <v>56.83</v>
-      </c>
-      <c r="G27" s="10">
-        <v>2</v>
-      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="10">
-        <v>27</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>4</v>
+      <c r="A28" s="10"/>
+      <c r="B28" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="E28" s="11"/>
-      <c r="F28" s="12">
-        <v>57.1</v>
-      </c>
-      <c r="G28" s="10">
-        <v>2</v>
-      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="10">
-        <v>28</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>4</v>
+      <c r="A29" s="10"/>
+      <c r="B29" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="E29" s="11"/>
-      <c r="F29" s="12">
-        <v>57.63</v>
-      </c>
-      <c r="G29" s="10">
-        <v>2</v>
-      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="10">
-        <v>29</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>5</v>
+      <c r="A30" s="10"/>
+      <c r="B30" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="E30" s="11"/>
-      <c r="F30" s="12">
-        <v>58.6</v>
-      </c>
-      <c r="G30" s="10">
-        <v>2</v>
-      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="10">
-        <v>30</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>4</v>
+      <c r="A31" s="10"/>
+      <c r="B31" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="E31" s="11"/>
-      <c r="F31" s="12">
-        <v>67.27</v>
-      </c>
-      <c r="G31" s="10">
-        <v>2</v>
-      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
